--- a/insta_config.xlsx
+++ b/insta_config.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>hashtags</t>
   </si>
@@ -247,18 +247,6 @@
   </si>
   <si>
     <t>Amazin!!!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#socialmedia </t>
-  </si>
-  <si>
-    <t xml:space="preserve">#smm </t>
-  </si>
-  <si>
-    <t xml:space="preserve">#marketing </t>
-  </si>
-  <si>
-    <t xml:space="preserve">#marketingtips </t>
   </si>
 </sst>
 </file>
@@ -622,10 +610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A25"/>
+  <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -733,26 +721,6 @@
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>
